--- a/outputs/preliminary results.xlsx
+++ b/outputs/preliminary results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoeKifle/Documents/Joetelila/RemoteProjects/Multi-Thread-KNN/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoeKifle/Documents/Joetelila/RemoteProjects/Multi-Thread-KNN/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E43F22-2C92-A744-8E99-F0BA5A3D67AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5161A5-C456-9E49-9298-999CB9A20E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="14020" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{3294C2D5-AD59-2B4A-A6EC-F78AAA2A5DCB}"/>
+    <workbookView xWindow="-6040" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="7" xr2:uid="{3294C2D5-AD59-2B4A-A6EC-F78AAA2A5DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="STL Seq" sheetId="5" r:id="rId5"/>
     <sheet name="STL Par" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId7"/>
-    <sheet name="FF Par" sheetId="7" r:id="rId8"/>
-    <sheet name="openMP Par" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId8"/>
+    <sheet name="FF Par" sheetId="7" r:id="rId9"/>
+    <sheet name="openMP Par" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="350">
   <si>
     <t>Threads</t>
   </si>
@@ -1081,6 +1082,9 @@
   <si>
     <t>[openMp</t>
   </si>
+  <si>
+    <t>[input_20k_s123.txt]</t>
+  </si>
 </sst>
 </file>
 
@@ -3593,6 +3597,1406 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$4:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9889423108573387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7573655911749713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4889941004412277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.839118981389769</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.672846047990387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.49799315311062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.557426337943483</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.0349564643533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B787-5043-9437-DAA882604552}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1168483296"/>
+        <c:axId val="1168484944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1168483296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168484944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1168484944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168483296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4914260717410336E-2"/>
+          <c:y val="0.13004629629629633"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$15:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.988578280911361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6753625428016039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2878350482211403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.484473463212622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.300313446249135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.218377385863896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.473364593742801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.660177475470078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01F6-2647-AE40-E080950DE463}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1168476720"/>
+        <c:axId val="1168396624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1168476720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168396624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1168396624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168476720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$26:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8639431733164522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7144191228271377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4288382456542754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.082107375005046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.271624829712579</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.267913081096857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.050646279587667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.894026158197747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-337A-AF4D-B0E0-3F1202EEFD89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1168420048"/>
+        <c:axId val="1168244480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1168420048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168244480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1168244480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168420048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$50:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.906381118428881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5967759253474934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1126692596488859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.856111455806872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.061333682248808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.923280185045584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.173282233780455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.883511665025999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3128-B046-B8AB-59CA24CC3B0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1134670032"/>
+        <c:axId val="1135945168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1134670032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1135945168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1135945168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1134670032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$61:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9231397640907797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6171726108603903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.192864007096567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.065279611444652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.447889391235016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.796587020241546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.489056623832241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.970116303767156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-859A-A548-AEA1-7A895B9712F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1136365632"/>
+        <c:axId val="1135234416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1136365632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1135234416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1135234416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136365632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4560,6 +5964,284 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1057793135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$72:$E$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8889059067162786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7551493503502837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5146441372247823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.687791482019687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.034628528421255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.344599701862073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.561275433308211</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.16037858498661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3371-E442-BD55-95677867F071}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1139326160"/>
+        <c:axId val="1168765696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1139326160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168765696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1168765696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139326160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7564,7 +9246,247 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10980,7 +12902,3103 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15637,6 +20655,227 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C93158A-6E0B-8944-9B4B-5F3BD29C4EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C97648-8073-FD4F-A828-8048524AA888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0092B48-3CB6-4348-A319-51D26BCD2F8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB3F7EF5-5182-454A-A671-22B012D435A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D0C817-A01C-9944-9970-8ECD93151157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872D7184-9B97-2847-99B0-CBBC4532BB1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -19552,6 +24791,116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E6B775-C6FB-A74E-8D73-7CE27EDED807}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781C34A1-E544-084B-9CFF-3B1CD462F72F}">
   <dimension ref="A1:G257"/>
@@ -36328,7 +41677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A7B45A-F839-7D44-934F-89936BE578A1}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D68" sqref="D68:D76"/>
     </sheetView>
   </sheetViews>
@@ -38932,6 +44281,1134 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECD00FC-56B4-0D40-A057-0D33B7BE68F0}">
+  <dimension ref="A3:F80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="1" t="e">
+        <f>---------------Running</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4">
+        <v>90.636300000000006</v>
+      </c>
+      <c r="E4">
+        <f>90.6363/D4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5">
+        <v>45.570099999999996</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E12" si="0">90.6363/D5</f>
+        <v>1.9889423108573387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18">
+      <c r="A6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6">
+        <v>24.122299999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.7573655911749713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7">
+        <v>12.102600000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7.4889941004412277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="A8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8">
+        <v>6.1079299999999996</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>14.839118981389769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18">
+      <c r="A9" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9">
+        <v>3.1610499999999999</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>28.672846047990387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18">
+      <c r="A10" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10">
+        <v>1.6941999999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>53.49799315311062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="A11" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11">
+        <v>1.4966999999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>60.557426337943483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18">
+      <c r="A12" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12">
+        <v>1.48499</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>61.0349564643533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="A14" s="1" t="e">
+        <f>---------------Running</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="A15" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15">
+        <v>90.377899999999997</v>
+      </c>
+      <c r="E15">
+        <f>90.3779/D15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18">
+      <c r="A16" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16">
+        <v>45.448500000000003</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E23" si="1">90.3779/D16</f>
+        <v>1.988578280911361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18">
+      <c r="A17" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17">
+        <v>24.590199999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>3.6753625428016039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18">
+      <c r="A18" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18">
+        <v>12.401199999999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>7.2878350482211403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18">
+      <c r="A19" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19">
+        <v>6.2396399999999996</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>14.484473463212622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18">
+      <c r="A20" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D20">
+        <v>3.19353</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>28.300313446249135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18">
+      <c r="A21" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D21">
+        <v>1.7645599999999999</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>51.218377385863896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18">
+      <c r="A22" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22">
+        <v>1.3008999999999999</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>69.473364593742801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18">
+      <c r="A23" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23">
+        <v>1.27905</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>70.660177475470078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="18">
+      <c r="A25" s="1" t="e">
+        <f>---------------Running</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18">
+      <c r="A26" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26">
+        <v>90.686800000000005</v>
+      </c>
+      <c r="E26">
+        <f>90.6868/D26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18">
+      <c r="A27" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27">
+        <v>48.653199999999998</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:E34" si="2">90.6868/D27</f>
+        <v>1.8639431733164522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18">
+      <c r="A28" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28">
+        <v>24.4148</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>3.7144191228271377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18">
+      <c r="A29" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C29" t="s">
+        <v>337</v>
+      </c>
+      <c r="D29">
+        <v>12.2074</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>7.4288382456542754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18">
+      <c r="A30" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B30" t="s">
+        <v>342</v>
+      </c>
+      <c r="C30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30">
+        <v>6.4398600000000004</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>14.082107375005046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18">
+      <c r="A31" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B31" t="s">
+        <v>342</v>
+      </c>
+      <c r="C31" t="s">
+        <v>337</v>
+      </c>
+      <c r="D31">
+        <v>3.7363300000000002</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>24.271624829712579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18">
+      <c r="A32" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32">
+        <v>1.9185700000000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>47.267913081096857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18">
+      <c r="A33" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33" t="s">
+        <v>342</v>
+      </c>
+      <c r="C33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D33">
+        <v>1.7422800000000001</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>52.050646279587667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18">
+      <c r="A34" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B34" t="s">
+        <v>342</v>
+      </c>
+      <c r="C34" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34">
+        <v>1.29749</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>69.894026158197747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="18">
+      <c r="A47" s="1" t="e">
+        <f>---------------Running</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18">
+      <c r="A48" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" t="s">
+        <v>336</v>
+      </c>
+      <c r="C48" t="s">
+        <v>337</v>
+      </c>
+      <c r="D48">
+        <v>14.694000000000001</v>
+      </c>
+      <c r="E48" t="s">
+        <v>338</v>
+      </c>
+      <c r="F48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18">
+      <c r="A49" s="1" t="e">
+        <f>---------------Running</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B49" t="s">
+        <v>339</v>
+      </c>
+      <c r="C49" t="s">
+        <v>340</v>
+      </c>
+      <c r="D49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18">
+      <c r="A50" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B50" t="s">
+        <v>342</v>
+      </c>
+      <c r="C50" t="s">
+        <v>337</v>
+      </c>
+      <c r="D50">
+        <v>14.7393</v>
+      </c>
+      <c r="E50">
+        <f>14.7393/D50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18">
+      <c r="A51" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" t="s">
+        <v>342</v>
+      </c>
+      <c r="C51" t="s">
+        <v>337</v>
+      </c>
+      <c r="D51">
+        <v>7.73156</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51:E58" si="3">14.7393/D51</f>
+        <v>1.906381118428881</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18">
+      <c r="A52" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B52" t="s">
+        <v>342</v>
+      </c>
+      <c r="C52" t="s">
+        <v>337</v>
+      </c>
+      <c r="D52">
+        <v>4.0979200000000002</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>3.5967759253474934</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18">
+      <c r="A53" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B53" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" t="s">
+        <v>337</v>
+      </c>
+      <c r="D53">
+        <v>2.07226</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>7.1126692596488859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18">
+      <c r="A54" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" t="s">
+        <v>337</v>
+      </c>
+      <c r="D54">
+        <v>1.0637399999999999</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>13.856111455806872</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18">
+      <c r="A55" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B55" t="s">
+        <v>342</v>
+      </c>
+      <c r="C55" t="s">
+        <v>337</v>
+      </c>
+      <c r="D55">
+        <v>0.56556200000000001</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>26.061333682248808</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18">
+      <c r="A56" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C56" t="s">
+        <v>337</v>
+      </c>
+      <c r="D56">
+        <v>0.38866099999999998</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>37.923280185045584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18">
+      <c r="A57" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B57" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" t="s">
+        <v>337</v>
+      </c>
+      <c r="D57">
+        <v>0.37625900000000001</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>39.173282233780455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18">
+      <c r="A58" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B58" t="s">
+        <v>342</v>
+      </c>
+      <c r="C58" t="s">
+        <v>337</v>
+      </c>
+      <c r="D58">
+        <v>0.389069</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>37.883511665025999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="18">
+      <c r="A60" s="1" t="e">
+        <f>---------------Running</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B60" t="s">
+        <v>344</v>
+      </c>
+      <c r="C60" t="s">
+        <v>341</v>
+      </c>
+      <c r="D60" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18">
+      <c r="A61" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B61" t="s">
+        <v>342</v>
+      </c>
+      <c r="C61" t="s">
+        <v>337</v>
+      </c>
+      <c r="D61">
+        <v>14.5954</v>
+      </c>
+      <c r="E61">
+        <f>14.5954/D61</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18">
+      <c r="A62" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B62" t="s">
+        <v>342</v>
+      </c>
+      <c r="C62" t="s">
+        <v>337</v>
+      </c>
+      <c r="D62">
+        <v>7.5893600000000001</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62:E69" si="4">14.5954/D62</f>
+        <v>1.9231397640907797</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18">
+      <c r="A63" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B63" t="s">
+        <v>342</v>
+      </c>
+      <c r="C63" t="s">
+        <v>337</v>
+      </c>
+      <c r="D63">
+        <v>4.0350299999999999</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>3.6171726108603903</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18">
+      <c r="A64" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B64" t="s">
+        <v>342</v>
+      </c>
+      <c r="C64" t="s">
+        <v>337</v>
+      </c>
+      <c r="D64">
+        <v>2.02915</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>7.192864007096567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18">
+      <c r="A65" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B65" t="s">
+        <v>342</v>
+      </c>
+      <c r="C65" t="s">
+        <v>337</v>
+      </c>
+      <c r="D65">
+        <v>1.03769</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="4"/>
+        <v>14.065279611444652</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18">
+      <c r="A66" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B66" t="s">
+        <v>342</v>
+      </c>
+      <c r="C66" t="s">
+        <v>337</v>
+      </c>
+      <c r="D66">
+        <v>0.55185499999999998</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="4"/>
+        <v>26.447889391235016</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18">
+      <c r="A67" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B67" t="s">
+        <v>342</v>
+      </c>
+      <c r="C67" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67">
+        <v>0.32581500000000002</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="4"/>
+        <v>44.796587020241546</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18">
+      <c r="A68" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B68" t="s">
+        <v>342</v>
+      </c>
+      <c r="C68" t="s">
+        <v>337</v>
+      </c>
+      <c r="D68">
+        <v>0.30100399999999999</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="4"/>
+        <v>48.489056623832241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18">
+      <c r="A69" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69" t="s">
+        <v>342</v>
+      </c>
+      <c r="C69" t="s">
+        <v>337</v>
+      </c>
+      <c r="D69">
+        <v>0.31073800000000001</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>46.970116303767156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" ht="18">
+      <c r="A71" s="1" t="e">
+        <f>---------------Running</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B71" t="s">
+        <v>347</v>
+      </c>
+      <c r="C71" t="s">
+        <v>341</v>
+      </c>
+      <c r="D71" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18">
+      <c r="A72" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B72" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" t="s">
+        <v>337</v>
+      </c>
+      <c r="D72">
+        <v>14.6761</v>
+      </c>
+      <c r="E72">
+        <f>14.6761/D72</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18">
+      <c r="A73" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B73" t="s">
+        <v>342</v>
+      </c>
+      <c r="C73" t="s">
+        <v>337</v>
+      </c>
+      <c r="D73">
+        <v>7.7696300000000003</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73:E80" si="5">14.6761/D73</f>
+        <v>1.8889059067162786</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18">
+      <c r="A74" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B74" t="s">
+        <v>342</v>
+      </c>
+      <c r="C74" t="s">
+        <v>337</v>
+      </c>
+      <c r="D74">
+        <v>3.9082599999999998</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>3.7551493503502837</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18">
+      <c r="A75" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C75" t="s">
+        <v>337</v>
+      </c>
+      <c r="D75">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>7.5146441372247823</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18">
+      <c r="A76" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B76" t="s">
+        <v>342</v>
+      </c>
+      <c r="C76" t="s">
+        <v>337</v>
+      </c>
+      <c r="D76">
+        <v>0.99920399999999998</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>14.687791482019687</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18">
+      <c r="A77" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B77" t="s">
+        <v>342</v>
+      </c>
+      <c r="C77" t="s">
+        <v>337</v>
+      </c>
+      <c r="D77">
+        <v>0.52349900000000005</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>28.034628528421255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="18">
+      <c r="A78" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B78" t="s">
+        <v>342</v>
+      </c>
+      <c r="C78" t="s">
+        <v>337</v>
+      </c>
+      <c r="D78">
+        <v>0.427319</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>34.344599701862073</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18">
+      <c r="A79" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B79" t="s">
+        <v>342</v>
+      </c>
+      <c r="C79" t="s">
+        <v>337</v>
+      </c>
+      <c r="D79">
+        <v>0.42464000000000002</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>34.561275433308211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18">
+      <c r="A80" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B80" t="s">
+        <v>342</v>
+      </c>
+      <c r="C80" t="s">
+        <v>337</v>
+      </c>
+      <c r="D80">
+        <v>0.38458999999999999</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>38.16037858498661</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB0B69E-7658-9B4C-B675-43270FB90A7F}">
   <dimension ref="A1:A27"/>
   <sheetViews>
@@ -39079,114 +45556,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E6B775-C6FB-A74E-8D73-7CE27EDED807}">
-  <dimension ref="A1:A19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/outputs/preliminary results.xlsx
+++ b/outputs/preliminary results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoeKifle/Documents/Joetelila/RemoteProjects/Multi-Thread-KNN/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5161A5-C456-9E49-9298-999CB9A20E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBA7E40-49A9-B74C-8DA8-F251DCEB6184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6040" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="7" xr2:uid="{3294C2D5-AD59-2B4A-A6EC-F78AAA2A5DCB}"/>
   </bookViews>
@@ -44282,10 +44282,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECD00FC-56B4-0D40-A057-0D33B7BE68F0}">
-  <dimension ref="A3:F80"/>
+  <dimension ref="A3:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R63" sqref="R63"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44865,7 +44865,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18">
+    <row r="49" spans="1:16" ht="18">
       <c r="A49" s="1" t="e">
         <f>---------------Running</f>
         <v>#NAME?</v>
@@ -44879,8 +44879,9 @@
       <c r="D49" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="18">
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="18">
       <c r="A50" s="1" t="s">
         <v>335</v>
       </c>
@@ -44897,8 +44898,9 @@
         <f>14.7393/D50</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="18">
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" ht="18">
       <c r="A51" s="1" t="s">
         <v>335</v>
       </c>
@@ -44915,8 +44917,9 @@
         <f t="shared" ref="E51:E58" si="3">14.7393/D51</f>
         <v>1.906381118428881</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="18">
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" ht="18">
       <c r="A52" s="1" t="s">
         <v>335</v>
       </c>
@@ -44933,8 +44936,9 @@
         <f t="shared" si="3"/>
         <v>3.5967759253474934</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="18">
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" ht="18">
       <c r="A53" s="1" t="s">
         <v>335</v>
       </c>
@@ -44951,8 +44955,9 @@
         <f t="shared" si="3"/>
         <v>7.1126692596488859</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="18">
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" ht="18">
       <c r="A54" s="1" t="s">
         <v>335</v>
       </c>
@@ -44969,8 +44974,9 @@
         <f t="shared" si="3"/>
         <v>13.856111455806872</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="18">
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" ht="18">
       <c r="A55" s="1" t="s">
         <v>335</v>
       </c>
@@ -44987,8 +44993,9 @@
         <f t="shared" si="3"/>
         <v>26.061333682248808</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="18">
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" ht="18">
       <c r="A56" s="1" t="s">
         <v>335</v>
       </c>
@@ -45005,8 +45012,9 @@
         <f t="shared" si="3"/>
         <v>37.923280185045584</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="18">
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="1:16" ht="18">
       <c r="A57" s="1" t="s">
         <v>335</v>
       </c>
@@ -45023,8 +45031,9 @@
         <f t="shared" si="3"/>
         <v>39.173282233780455</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="18">
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:16" ht="18">
       <c r="A58" s="1" t="s">
         <v>335</v>
       </c>
@@ -45042,10 +45051,10 @@
         <v>37.883511665025999</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18">
+    <row r="59" spans="1:16" ht="18">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" ht="18">
+    <row r="60" spans="1:16" ht="18">
       <c r="A60" s="1" t="e">
         <f>---------------Running</f>
         <v>#NAME?</v>
@@ -45060,7 +45069,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18">
+    <row r="61" spans="1:16" ht="18">
       <c r="A61" s="1" t="s">
         <v>346</v>
       </c>
@@ -45078,7 +45087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18">
+    <row r="62" spans="1:16" ht="18">
       <c r="A62" s="1" t="s">
         <v>346</v>
       </c>
@@ -45096,7 +45105,7 @@
         <v>1.9231397640907797</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18">
+    <row r="63" spans="1:16" ht="18">
       <c r="A63" s="1" t="s">
         <v>346</v>
       </c>
@@ -45114,7 +45123,7 @@
         <v>3.6171726108603903</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18">
+    <row r="64" spans="1:16" ht="18">
       <c r="A64" s="1" t="s">
         <v>346</v>
       </c>
